--- a/Baumanagement/print_forms/bill.xlsx
+++ b/Baumanagement/print_forms/bill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\39528\Documents\2022-03-31 BM\Baumanagement\print_forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E79EFAB-9979-47AF-B2C1-D1669F66BC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7F49EE-ACF4-4397-9CE6-6905E0A41813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B86374E-E14B-493E-8CF6-B7A023CFD5C1}"/>
   </bookViews>
@@ -218,7 +218,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -241,17 +241,6 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -259,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -273,55 +262,70 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -690,13 +694,13 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="12" width="8.28515625" style="18" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="18"/>
+    <col min="1" max="12" width="8.28515625" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -711,7 +715,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="20"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -769,89 +773,89 @@
     </row>
     <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="11" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="10" t="s">
+      <c r="I8" s="18"/>
+      <c r="J8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="10"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="10" t="s">
+      <c r="I9" s="18"/>
+      <c r="J9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="10"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="10" t="s">
+      <c r="I10" s="18"/>
+      <c r="J10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="10"/>
+      <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="10" t="s">
+      <c r="I11" s="18"/>
+      <c r="J11" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="10"/>
+      <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -883,50 +887,50 @@
     </row>
     <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+    </row>
+    <row r="19" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -939,124 +943,116 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
+      <c r="B20" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="25"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="K21" s="17"/>
-    </row>
-    <row r="22" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="15" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+    </row>
+    <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+    </row>
+    <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C23" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13" t="s">
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="14" t="s">
+      <c r="H23" s="14"/>
+      <c r="I23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="J23" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="K22" s="13"/>
-    </row>
-    <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K23" s="14"/>
+    </row>
+    <row r="24" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="12" t="s">
-        <v>22</v>
-      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
       <c r="I24" s="12"/>
-      <c r="J24" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="K24" s="10"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="B25" s="3"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="10"/>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K26" s="10"/>
+      <c r="H26" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="22"/>
+      <c r="J26" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K26" s="17"/>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
@@ -1066,60 +1062,70 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
+      <c r="H27" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="22"/>
+      <c r="J27" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="17"/>
     </row>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="22"/>
+      <c r="J28" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K28" s="17"/>
     </row>
     <row r="29" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="B30" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
     </row>
     <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
+      <c r="B31" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
     </row>
     <row r="32" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
@@ -1132,51 +1138,57 @@
     </row>
     <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
+      <c r="B33" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
     </row>
     <row r="34" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+      <c r="B35" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
     </row>
     <row r="36" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+      <c r="B36" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
     </row>
     <row r="37" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
@@ -1323,79 +1335,79 @@
       <c r="G52" s="2"/>
     </row>
     <row r="53" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="19"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
     </row>
     <row r="54" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
     </row>
     <row r="55" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
       <c r="L55" s="2"/>
     </row>
     <row r="56" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
     </row>
     <row r="57" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
     </row>
     <row r="58" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
@@ -1419,19 +1431,32 @@
       <c r="A60" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="45">
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:F21"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:K21"/>
     <mergeCell ref="B56:K56"/>
     <mergeCell ref="B57:K57"/>
-    <mergeCell ref="B33:K33"/>
-    <mergeCell ref="B34:K34"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="B36:K36"/>
     <mergeCell ref="B54:K54"/>
     <mergeCell ref="B55:K55"/>
     <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B30:K30"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
     <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B29:K29"/>
-    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="B33:K33"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
@@ -1447,16 +1472,11 @@
     <mergeCell ref="B16:K16"/>
     <mergeCell ref="B17:K17"/>
     <mergeCell ref="B18:K18"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="J22:K22"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="H24:I24"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
